--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A25493-E9BA-458B-BE3C-C377A9707154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D54CF74-3ACB-4DBF-9C33-16B14A68116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{A2691F1B-E7A4-43B2-BB3A-33EE1F849519}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A2691F1B-E7A4-43B2-BB3A-33EE1F849519}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Producto</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Precio unitario</t>
-  </si>
-  <si>
-    <t>Total de ventas</t>
   </si>
   <si>
     <t>Producto A</t>
@@ -476,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A0EAB-CC91-4216-9870-DBD7EE6591C2}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +487,7 @@
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,16 +500,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>500</v>
@@ -520,16 +514,13 @@
       <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
@@ -537,16 +528,13 @@
       <c r="D3" s="1">
         <v>15.5</v>
       </c>
-      <c r="E3" s="1">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>750</v>
@@ -554,16 +542,13 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>600</v>
@@ -571,25 +556,19 @@
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>900</v>
       </c>
       <c r="D6" s="1">
         <v>30</v>
-      </c>
-      <c r="E6" s="1">
-        <v>27000</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06883B3F-D5E4-49B9-AB3B-611EE9C6EB17}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -615,21 +594,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>32</v>
@@ -643,7 +622,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>27</v>
@@ -657,7 +636,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>29</v>
@@ -671,7 +650,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
@@ -685,7 +664,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
